--- a/relatorios/repasses_liberados/dentistas/11138524450/2023-08-25_relatorio_repasses_11138524450.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11138524450/2023-08-25_relatorio_repasses_11138524450.xlsx
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N20">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N21">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N22">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N23">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N26">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N27">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N29">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N31">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1918,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N32">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1962,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N33">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
